--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Calca-Calcr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Calca-Calcr.xlsx
@@ -79,13 +79,13 @@
     <t>MuSCs</t>
   </si>
   <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
     <t>Calca</t>
   </si>
   <si>
     <t>Calcr</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -516,13 +516,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -531,108 +531,108 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3563733333333333</v>
+        <v>0.347953</v>
       </c>
       <c r="H2">
-        <v>1.06912</v>
+        <v>1.043859</v>
       </c>
       <c r="I2">
-        <v>0.7076478281820058</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.7076478281820059</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>5.194209333333333</v>
+        <v>0.09584066666666667</v>
       </c>
       <c r="N2">
-        <v>15.582628</v>
+        <v>0.287522</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.3176649051884244</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.3176649051884244</v>
       </c>
       <c r="Q2">
-        <v>1.851077694151111</v>
+        <v>0.03334804748866667</v>
       </c>
       <c r="R2">
-        <v>16.65969924736</v>
+        <v>0.300132427398</v>
       </c>
       <c r="S2">
-        <v>0.7076478281820058</v>
+        <v>0.3176649051884244</v>
       </c>
       <c r="T2">
-        <v>0.7076478281820059</v>
+        <v>0.3176649051884244</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1472293333333334</v>
+        <v>0.347953</v>
       </c>
       <c r="H3">
-        <v>0.441688</v>
+        <v>1.043859</v>
       </c>
       <c r="I3">
-        <v>0.2923521718179941</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.2923521718179941</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>5.194209333333333</v>
+        <v>0.205863</v>
       </c>
       <c r="N3">
-        <v>15.582628</v>
+        <v>0.6175889999999999</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.6823350948115756</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.6823350948115755</v>
       </c>
       <c r="Q3">
-        <v>0.7647399773404445</v>
+        <v>0.07163064843899999</v>
       </c>
       <c r="R3">
-        <v>6.882659796064</v>
+        <v>0.644675835951</v>
       </c>
       <c r="S3">
-        <v>0.2923521718179941</v>
+        <v>0.6823350948115756</v>
       </c>
       <c r="T3">
-        <v>0.2923521718179941</v>
+        <v>0.6823350948115755</v>
       </c>
     </row>
   </sheetData>
